--- a/모티브 프로젝트_DOCS/한림_대시보드_API&DB 명세서_250708.xlsx
+++ b/모티브 프로젝트_DOCS/한림_대시보드_API&DB 명세서_250708.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanlimce.sharepoint.com/sites/dev_3/Shared Documents/General/1. 진행 프로젝트 자료/디지털트윈_모티브/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aichemist_3\Desktop\Local\13.motivr_project\모티브 프로젝트_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{5BBAB559-0B3D-4297-935D-7B33ED46CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8883A9A5-FA84-462F-97DF-B67568A6EDA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7935E0-F259-4834-AB94-73DBEED585D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SensorInfo" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,155 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="543">
+  <si>
+    <t>1. 테이블명  : SenSorInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명</t>
+  </si>
+  <si>
+    <t>데이터 타입</t>
+  </si>
+  <si>
+    <t>Null 허용</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>예시 값</t>
+  </si>
+  <si>
+    <t>IndexKey</t>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 식별자</t>
+  </si>
+  <si>
+    <t>C9F3E1D8-9B8C-41E1-AE3F...</t>
+  </si>
+  <si>
+    <t>RID</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>센서 고유 ID</t>
+  </si>
+  <si>
+    <t>SENSOR_001</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서 이름(라벨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번빔_1번센서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>위도</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37.5665 (소숫점 6자리)</t>
+    </r>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>경도</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>126.9780 (소숫점 6자리)</t>
+    </r>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>센서 설치위치 설명</t>
+    </r>
+  </si>
+  <si>
+    <t>3번 빔 하단 오른쪽</t>
+  </si>
+  <si>
+    <t>SensorType</t>
+  </si>
+  <si>
+    <t>센서 유형 코드</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>EventType</t>
+  </si>
+  <si>
+    <t>이벤트 유형 코드</t>
+  </si>
+  <si>
+    <t>CreateAt</t>
+  </si>
+  <si>
+    <t>datetimeoffset</t>
+  </si>
+  <si>
+    <t>생성 시간 (KST)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-04 15:00:00 +09:00</t>
+  </si>
   <si>
     <t>Backend Endpoint: https://hanlimtwin.kr:3030</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,73 +212,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>필드명</t>
-  </si>
-  <si>
-    <t>데이터 타입</t>
-  </si>
-  <si>
-    <t>Null 허용</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>예시 값</t>
-  </si>
-  <si>
-    <t>IndexKey</t>
-  </si>
-  <si>
-    <t>uniqueidentifier</t>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 식별자</t>
-  </si>
-  <si>
-    <t>C9F3E1D8-9B8C-41E1-AE3F...</t>
-  </si>
-  <si>
-    <t>RID</t>
-  </si>
-  <si>
-    <t>nvarchar</t>
-  </si>
-  <si>
-    <t>✔</t>
-  </si>
-  <si>
-    <t>센서 고유 ID</t>
-  </si>
-  <si>
-    <t>SENSOR_001</t>
-  </si>
-  <si>
-    <t>SensorType</t>
-  </si>
-  <si>
-    <t>센서 유형 코드</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>EventType</t>
-  </si>
-  <si>
-    <t>이벤트 유형 코드</t>
-  </si>
-  <si>
     <t>X_Deg</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>X축 각도 변위</t>
   </si>
   <si>
@@ -200,34 +284,13 @@
     <t>85.5</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>위도</t>
-  </si>
-  <si>
     <t>37.5665</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>경도</t>
-  </si>
-  <si>
     <t>126.9780</t>
   </si>
   <si>
-    <t>CreateAt</t>
-  </si>
-  <si>
-    <t>datetimeoffset</t>
-  </si>
-  <si>
     <t>수집 시간 (KST)</t>
-  </si>
-  <si>
-    <t>2025-07-04 15:00:00 +09:00</t>
   </si>
   <si>
     <t xml:space="preserve">2. 관련 API </t>
@@ -326,70 +389,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>": {...}}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">실제 센서가 서버로 부터 주는 가장 핵심 API!!!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※ 참고</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IotItem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>은 json 형식으로
-{
-  "RID": "SENSOR_01",
-  "EventType": "4",
-  "X_Deg": 1.53,
-  "Y_Deg": -0.75,
-  "Z_Deg": 0.01,
-  "X_MM": 3.2,
-  "Y_MM": -1.5,
-  "Z_MM": 0.0,
-  "BatteryVoltage": 3.7,
-  "BatteryLevel": 88.0,
-  "Latitude": 37.5665,
-  "Longitude": 126.9780,
-  "CreateAt": "2025-07-04 15:30:00"
-}
-아래와 같은 형식이다.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -699,10 +698,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Location</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>설치위치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1074,6 +1069,158 @@
   <si>
     <t>id 기준으로 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빨간색 글자가 장치정보에 등록한 내용, 주황색 표시된 부분은 센서로 부터 수신된 정보
+초록색은 주황색 수집된 데이터를 가공한 정보 </t>
+  </si>
+  <si>
+    <t>정보(변위) - 0x02</t>
+  </si>
+  <si>
+    <t>정보(GPS) - 0x05</t>
+  </si>
+  <si>
+    <t>주의 - 0x43</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추진구3층 변위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 주의 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X: 0.0°, Y: 0.1°, Z: 0°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 배터리(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>경고 - 0x44</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추진구3층 변위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 경고 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X: 0.0°, Y: 0.1°, Z: 0°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 배터리(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>1. 테이블명  : Duty</t>
@@ -2164,10 +2311,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2457,25 +2600,205 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>생성 시간 (KST)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3번빔_1번센서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3번 빔 하단 오른쪽</t>
-  </si>
-  <si>
-    <t>1. 테이블명  : SenSorInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>센서 정보 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+    <t>센서 장비 목록 테이블, RawSensorData와 연관이 깊다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RawSensorData의 시트 참고할것.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이 api는 rawsensrodata테이블을 이용하는 api이지만, 신규 센서인지를 조회하는 로직이 있기때문에, 예를들어 s0부터 s10까지 있던 센서에 s11을 rawsensordata에서 받으면, 자동으로 이 sensorinfo에 rid를 포함한 기타 최신 정보가 이쪽으로 들어오게 된다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추진구3층 변위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GPS 정보수집 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위도: 35.826871, 경도: 128.666355</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DMS: 35°49′36″N 128°39′58″E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추진구3층 변위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 측정 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X: 0.0°, Y: 0.1°, Z: 0°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 배터리(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250723 요구사항에 따라 새로 추가!!!!!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서 라벨(네임)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">추진구3층 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">실제 센서가 서버로 부터 주는 가장 핵심 API!!!
+sensorinfo에 등록되지않은 rid 이면 (즉 신규 rid일 경우), SenSorInfo에 자동으로 등록된다.
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2484,10 +2807,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>37.5665 (소숫점 6자리)</t>
+      <t>※ 참고</t>
     </r>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IotItem</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2496,23 +2829,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>126.9780 (소숫점 6자리)</t>
+      <t>은 json 형식으로
+{
+  "RID": "SENSOR_01",
+  "EventType": "4",
+  "X_Deg": 1.53,
+  "Y_Deg": -0.75,
+  "Z_Deg": 0.01,
+  "X_MM": 3.2,
+  "Y_MM": -1.5,
+  "Z_MM": 0.0,
+  "BatteryVoltage": 3.7,
+  "BatteryLevel": 88.0,
+  "Latitude": 37.5665,
+  "Longitude": 126.9780,
+  "Label" : "추진구 3층",
+  "CreateAt": "2025-07-04 15:30:00"
+}
+아래와 같은 형식이다.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>센서 설치위치 설명</t>
-    </r>
-  </si>
-  <si>
-    <t>센서 이름(라벨)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2520,7 +2855,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2680,8 +3015,58 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2692,6 +3077,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2752,11 +3142,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2868,19 +3261,23 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -2902,22 +3299,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2657475</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>48334</xdr:rowOff>
+      <xdr:colOff>1592272</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>200484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96C3BD8-5A78-46FE-9277-DFD79340D815}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFB900D-0876-61AE-4803-4D05CC443C9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,23 +3330,22 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14287500"/>
-          <a:ext cx="12639675" cy="5077534"/>
+          <a:off x="133350" y="14973300"/>
+          <a:ext cx="11441122" cy="3286584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100" cap="sq">
+        <a:ln w="127000" cap="sq">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:outerShdw blurRad="57150" dist="50800" dir="2700000" algn="tl" rotWithShape="0">
             <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
+              <a:alpha val="40000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2961,21 +3357,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>133954</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>57703</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1473DBD7-9580-40B3-B28E-CA92A54D4DAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D8058E-222C-A6EE-2556-2EB9CE85CFB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,19 +3387,22 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19735800"/>
-          <a:ext cx="12649200" cy="4324954"/>
+          <a:off x="0" y="19812000"/>
+          <a:ext cx="13792200" cy="3962953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="127000" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+          <a:outerShdw blurRad="57150" dist="50800" dir="2700000" algn="tl" rotWithShape="0">
             <a:srgbClr val="000000">
-              <a:alpha val="70000"/>
+              <a:alpha val="40000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -3349,7 +3748,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>905500</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>105030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3900,10 +4299,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4192,10 +4587,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4205,184 +4600,230 @@
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="C5" s="50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="50" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="51" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="C6" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="50" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="50" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="50" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>528</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>16</v>
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>527</v>
+        <v>27</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>522</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>21</v>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>21</v>
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>58</v>
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.25">
+      <c r="A16" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="66">
+      <c r="A19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4419,68 +4860,68 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27">
       <c r="A5" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="33" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4490,7 +4931,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="33"/>
       <c r="F7" s="41" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4575,13 +5016,13 @@
     </row>
     <row r="20" spans="1:6" ht="26.25">
       <c r="A20" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4613,7 +5054,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +5068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42985F86-F50E-4BAF-8A58-894E55FC125D}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -4651,44 +5092,44 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -4697,56 +5138,56 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="E7" s="33">
         <v>50</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E8" s="37">
         <v>45734.291666666664</v>
@@ -4755,16 +5196,16 @@
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E9" s="37">
         <v>45734.291666666664</v>
@@ -4773,22 +5214,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="E10" s="37">
         <v>45734.291666666664</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4849,114 +5290,114 @@
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="27" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="33">
       <c r="A25" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="E27" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -5010,17 +5451,17 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="A40" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5034,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB69FE87-62AF-44CD-8B9D-B5C90277E74F}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5058,44 +5499,44 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -5104,440 +5545,440 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>449</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="57" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="87.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="E26" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="E31" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="48" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="8" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -5551,17 +5992,17 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="A40" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5576,10 +6017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5594,10 +6035,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5606,532 +6047,552 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
+      <c r="A7" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="26.25">
-      <c r="A22" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.25">
+      <c r="A23" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="330">
+      <c r="A24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="363">
       <c r="A26" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="66">
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="66">
       <c r="A31" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="33">
+      <c r="A33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="33">
-      <c r="A32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="48" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="48" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="26.25">
-      <c r="A40" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="3" t="s">
-        <v>113</v>
+      <c r="B35" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="26.25">
+      <c r="A41" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="E42" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6145,7 +6606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E554DAEC-1D12-472A-811B-1E395A4D7A26}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -6169,44 +6630,44 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -6215,92 +6676,92 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E8" s="33">
         <v>0</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E10" s="33">
         <v>0.01</v>
@@ -6309,297 +6770,297 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="33" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="34" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F17" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6636,17 +7097,17 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="A40" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6664,8 +7125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5897ED95-CABE-4C17-B286-3547624EDC14}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6688,48 +7149,48 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+        <v>202</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -6738,53 +7199,53 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -6862,105 +7323,105 @@
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33">
       <c r="A26" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="C26" s="9" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7021,17 +7482,54 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="A40" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" ht="33">
+      <c r="E61" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
       <c r="E67" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7048,7 +7546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F3B1F2-769F-4492-B0E3-3928E1ED4D6C}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -7072,44 +7570,44 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -7118,34 +7616,34 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E7" s="36">
         <v>45820</v>
@@ -7154,16 +7652,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E8" s="36">
         <v>45833</v>
@@ -7172,22 +7670,22 @@
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E9" s="33">
         <v>75</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7256,65 +7754,65 @@
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5">
       <c r="A25" s="8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7391,17 +7889,17 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="A40" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7415,7 +7913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CC6CB-1F27-4C82-A091-01E7A09B0F59}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -7439,44 +7937,44 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -7485,128 +7983,128 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E12" s="37">
         <v>45839</v>
@@ -7615,16 +8113,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E13" s="37">
         <v>45869</v>
@@ -7633,16 +8131,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="E14" s="33">
         <v>36.139012000000001</v>
@@ -7651,16 +8149,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="E15" s="34">
         <v>128.12578099999999</v>
@@ -7669,22 +8167,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E16" s="37">
         <v>45838</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7697,65 +8195,65 @@
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="214.5">
       <c r="A25" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7832,17 +8330,17 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="A40" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7856,7 +8354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B21C8C-6937-4898-B42B-A5FD4B35FFE5}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -7880,44 +8378,44 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -7926,16 +8424,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E6" s="37">
         <v>45734.291666666664</v>
@@ -7944,19 +8442,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F7" s="33"/>
     </row>
@@ -8042,127 +8540,127 @@
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5">
       <c r="A25" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33">
       <c r="A26" s="8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5">
       <c r="A27" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="33">
       <c r="A28" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8215,17 +8713,17 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="A40" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -8239,8 +8737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6FD9BF-1519-4B42-9F62-30FFF701F98E}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8263,44 +8761,44 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -8309,54 +8807,54 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="E8" s="37">
         <v>45734.291666666664</v>
@@ -8437,83 +8935,83 @@
     </row>
     <row r="22" spans="1:6" ht="26.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="49.5">
       <c r="A24" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="27" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8582,17 +9080,17 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="A40" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -8606,7 +9104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467C3610-5B5E-4CD7-BD28-33F98DD2061E}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -8630,44 +9128,44 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="A2" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -8676,70 +9174,70 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="E9" s="37">
         <v>5</v>
@@ -8748,76 +9246,76 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="48" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="E12" s="33">
         <v>0.5</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="E13" s="37">
         <v>5</v>
@@ -8826,16 +9324,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E14" s="33">
         <v>0.5</v>
@@ -8844,16 +9342,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E15" s="33">
         <v>0.5</v>
@@ -8862,16 +9360,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="E16" s="33">
         <v>0.5</v>
@@ -8880,16 +9378,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="E17" s="33">
         <v>0.5</v>
@@ -8898,16 +9396,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="E18" s="33">
         <v>0.5</v>
@@ -8916,16 +9414,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E19" s="33">
         <v>0.5</v>
@@ -8934,16 +9432,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="E20" s="33">
         <v>0.5</v>
@@ -8952,16 +9450,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E21" s="33">
         <v>0.5</v>
@@ -8970,16 +9468,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="E22" s="33">
         <v>0.5</v>
@@ -8988,16 +9486,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E23" s="33">
         <v>0.5</v>
@@ -9006,16 +9504,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="E24" s="33">
         <v>0.5</v>
@@ -9024,16 +9522,16 @@
     </row>
     <row r="25" spans="1:6" ht="23.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="E25" s="33">
         <v>0.5</v>
@@ -9042,16 +9540,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="E26" s="33">
         <v>0.5</v>
@@ -9075,65 +9573,65 @@
     </row>
     <row r="36" spans="1:6" ht="26.25">
       <c r="A36" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="66">
       <c r="A38" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="33">
       <c r="A39" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="31" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -9194,17 +9692,17 @@
     </row>
     <row r="50" spans="1:5" ht="26.25">
       <c r="A50" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="E52" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -9215,17 +9713,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d258b355-8501-4acc-8349-f7fac8749b26">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9234,7 +9721,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101003907DB3BD533EA4592ADB89EBC24DBC7" ma:contentTypeVersion="12" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="59fc32b7edad0eceffd4cc184ebefc5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d258b355-8501-4acc-8349-f7fac8749b26" xmlns:ns3="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="681167af73accc9101063aec098d62fc" ns2:_="" ns3:_="">
     <xsd:import namespace="d258b355-8501-4acc-8349-f7fac8749b26"/>
@@ -9435,18 +9922,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EFFF9F4-3B41-4225-8757-554607893B07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd"/>
-    <ds:schemaRef ds:uri="d258b355-8501-4acc-8349-f7fac8749b26"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d258b355-8501-4acc-8349-f7fac8749b26">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ECE6D21-DFF9-44CD-AAD3-562308427691}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9454,7 +9941,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57193AF9-69DA-410F-B232-6FBE18567FBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9471,4 +9958,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EFFF9F4-3B41-4225-8757-554607893B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c1cd098a-cfbd-4f4e-a68d-06c8391c5cfd"/>
+    <ds:schemaRef ds:uri="d258b355-8501-4acc-8349-f7fac8749b26"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>